--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A0273-675D-48D0-A007-DD9CDE1F55C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4234CF51-54A6-48DC-82B3-2FCDF8AC9B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4234CF51-54A6-48DC-82B3-2FCDF8AC9B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7993868-DF40-4B8A-843D-B524189D2531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7993868-DF40-4B8A-843D-B524189D2531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1F4A6-1DF4-4383-82F9-CC6163745355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1F4A6-1DF4-4383-82F9-CC6163745355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E6B8F-7D0F-47DC-9BA0-1441195E0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E6B8F-7D0F-47DC-9BA0-1441195E0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB742193-6656-406C-8C63-6A245B0AD441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB742193-6656-406C-8C63-6A245B0AD441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D89580-E1FA-42D3-A1C0-7EBE9D492DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D89580-E1FA-42D3-A1C0-7EBE9D492DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD80B62B-8C70-4674-9BA1-4251AA6CC7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD80B62B-8C70-4674-9BA1-4251AA6CC7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE2668-C480-4E14-864A-DA8D34BA9EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE2668-C480-4E14-864A-DA8D34BA9EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3149E15-E7C0-4E2F-AB69-1EF8E79374AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3149E15-E7C0-4E2F-AB69-1EF8E79374AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCBE11E-A357-493D-B181-80A0A9F21C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47985" yWindow="-3195" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2050.xlsx
+++ b/data/CS3/case30/case30_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCBE11E-A357-493D-B181-80A0A9F21C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891B99C2-00A6-4434-B3B7-52EDEFEEA39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47985" yWindow="-3195" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
